--- a/Hayes abundance estimates - background/Phenology by year - mah - 10192022.xlsx
+++ b/Hayes abundance estimates - background/Phenology by year - mah - 10192022.xlsx
@@ -1,19 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_13BAB967F09A64DC9CF4DB037CCC09476ED1B5E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14B65033-C2F8-4B9C-9DE1-652D51DC337F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full data" sheetId="1" r:id="rId1"/>
     <sheet name="Simple dataframe" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -43,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -356,7 +368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -366,9 +378,9 @@
       <selection pane="bottomRight" activeCell="AM50" sqref="AM50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +535,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44757</v>
       </c>
@@ -642,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44758</v>
       </c>
@@ -762,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44759</v>
       </c>
@@ -882,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44760</v>
       </c>
@@ -1002,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44761</v>
       </c>
@@ -1122,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44762</v>
       </c>
@@ -1242,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44763</v>
       </c>
@@ -1362,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44764</v>
       </c>
@@ -1482,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44765</v>
       </c>
@@ -1602,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44766</v>
       </c>
@@ -1722,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44767</v>
       </c>
@@ -1842,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44768</v>
       </c>
@@ -1962,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44769</v>
       </c>
@@ -2082,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44770</v>
       </c>
@@ -2202,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44771</v>
       </c>
@@ -2322,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44772</v>
       </c>
@@ -2442,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44773</v>
       </c>
@@ -2562,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44774</v>
       </c>
@@ -2682,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44775</v>
       </c>
@@ -2802,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44776</v>
       </c>
@@ -2922,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44777</v>
       </c>
@@ -3042,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44778</v>
       </c>
@@ -3162,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44779</v>
       </c>
@@ -3282,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44780</v>
       </c>
@@ -3402,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44781</v>
       </c>
@@ -3522,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44782</v>
       </c>
@@ -3642,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44783</v>
       </c>
@@ -3762,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44784</v>
       </c>
@@ -3882,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44785</v>
       </c>
@@ -4002,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44786</v>
       </c>
@@ -4122,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44787</v>
       </c>
@@ -4242,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44788</v>
       </c>
@@ -4362,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44789</v>
       </c>
@@ -4482,7 +4494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44790</v>
       </c>
@@ -4602,7 +4614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44791</v>
       </c>
@@ -4722,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44792</v>
       </c>
@@ -4842,7 +4854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44793</v>
       </c>
@@ -4962,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44794</v>
       </c>
@@ -5082,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44795</v>
       </c>
@@ -5202,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44796</v>
       </c>
@@ -5322,7 +5334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44797</v>
       </c>
@@ -5442,7 +5454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44798</v>
       </c>
@@ -5562,7 +5574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44799</v>
       </c>
@@ -5682,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44800</v>
       </c>
@@ -5802,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44801</v>
       </c>
@@ -5922,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44802</v>
       </c>
@@ -6042,7 +6054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44803</v>
       </c>
@@ -6162,7 +6174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44804</v>
       </c>
@@ -6282,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44805</v>
       </c>
@@ -6402,7 +6414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44806</v>
       </c>
@@ -6522,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44807</v>
       </c>
@@ -6642,7 +6654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44808</v>
       </c>
@@ -6762,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44809</v>
       </c>
@@ -6882,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44810</v>
       </c>
@@ -7002,7 +7014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44811</v>
       </c>
@@ -7122,7 +7134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44812</v>
       </c>
@@ -7242,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44813</v>
       </c>
@@ -7362,7 +7374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44814</v>
       </c>
@@ -7482,7 +7494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44815</v>
       </c>
@@ -7602,7 +7614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44816</v>
       </c>
@@ -7722,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44817</v>
       </c>
@@ -7842,7 +7854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44818</v>
       </c>
@@ -7962,7 +7974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44819</v>
       </c>
@@ -8082,7 +8094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44820</v>
       </c>
@@ -8202,7 +8214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44821</v>
       </c>
@@ -8322,7 +8334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44822</v>
       </c>
@@ -8442,7 +8454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44823</v>
       </c>
@@ -8562,7 +8574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44824</v>
       </c>
@@ -8682,7 +8694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44825</v>
       </c>
@@ -8802,7 +8814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44826</v>
       </c>
@@ -8922,7 +8934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44827</v>
       </c>
@@ -9042,7 +9054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44828</v>
       </c>
@@ -9162,7 +9174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44829</v>
       </c>
@@ -9282,7 +9294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44830</v>
       </c>
@@ -9402,7 +9414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44831</v>
       </c>
@@ -9522,7 +9534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44832</v>
       </c>
@@ -9642,7 +9654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44833</v>
       </c>
@@ -9762,7 +9774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44834</v>
       </c>
@@ -9882,7 +9894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44835</v>
       </c>
@@ -10002,7 +10014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44836</v>
       </c>
@@ -10122,7 +10134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44837</v>
       </c>
@@ -10242,7 +10254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44838</v>
       </c>
@@ -10362,7 +10374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44839</v>
       </c>
@@ -10482,7 +10494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44840</v>
       </c>
@@ -10602,7 +10614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44841</v>
       </c>
@@ -10722,7 +10734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44842</v>
       </c>
@@ -10842,7 +10854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44843</v>
       </c>
@@ -10962,7 +10974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44844</v>
       </c>
@@ -11082,7 +11094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44845</v>
       </c>
@@ -11202,7 +11214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44846</v>
       </c>
@@ -11322,7 +11334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44847</v>
       </c>
@@ -11442,7 +11454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44848</v>
       </c>
@@ -11562,7 +11574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44849</v>
       </c>
@@ -11682,7 +11694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44850</v>
       </c>
@@ -11802,7 +11814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44851</v>
       </c>
@@ -11922,7 +11934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44852</v>
       </c>
@@ -12042,7 +12054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44853</v>
       </c>
@@ -12162,7 +12174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44854</v>
       </c>
@@ -12282,7 +12294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44855</v>
       </c>
@@ -12402,7 +12414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44856</v>
       </c>
@@ -12522,7 +12534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44857</v>
       </c>
@@ -12642,7 +12654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44858</v>
       </c>
@@ -12762,7 +12774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44859</v>
       </c>
@@ -12882,7 +12894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44860</v>
       </c>
@@ -13002,7 +13014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44861</v>
       </c>
@@ -13122,7 +13134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44862</v>
       </c>
@@ -13242,7 +13254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44863</v>
       </c>
@@ -13362,7 +13374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44864</v>
       </c>
@@ -13482,7 +13494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44865</v>
       </c>
@@ -13608,19 +13620,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -13634,21 +13646,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1986</v>
       </c>
       <c r="B2">
+        <v>222</v>
+      </c>
+      <c r="C2">
         <v>232</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>240</v>
       </c>
-      <c r="D2">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1987</v>
       </c>
@@ -13662,7 +13674,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1988</v>
       </c>
@@ -13676,7 +13688,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1989</v>
       </c>
@@ -13690,7 +13702,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1990</v>
       </c>
@@ -13704,7 +13716,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1991</v>
       </c>
@@ -13718,7 +13730,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1992</v>
       </c>
@@ -13732,7 +13744,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1993</v>
       </c>
@@ -13746,7 +13758,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1994</v>
       </c>
@@ -13760,7 +13772,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1995</v>
       </c>
@@ -13774,7 +13786,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1996</v>
       </c>
@@ -13788,7 +13800,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1997</v>
       </c>
@@ -13802,7 +13814,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1998</v>
       </c>
@@ -13816,7 +13828,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1999</v>
       </c>
@@ -13830,7 +13842,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2000</v>
       </c>
@@ -13844,7 +13856,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2001</v>
       </c>
@@ -13858,7 +13870,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2002</v>
       </c>
@@ -13872,7 +13884,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2003</v>
       </c>
@@ -13886,7 +13898,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2004</v>
       </c>
@@ -13900,7 +13912,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2005</v>
       </c>
@@ -13914,7 +13926,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2006</v>
       </c>
@@ -13928,7 +13940,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2007</v>
       </c>
@@ -13942,7 +13954,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2008</v>
       </c>
@@ -13956,7 +13968,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2009</v>
       </c>
@@ -13970,7 +13982,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2010</v>
       </c>
@@ -13984,7 +13996,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2011</v>
       </c>
@@ -13998,7 +14010,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2012</v>
       </c>
@@ -14012,7 +14024,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2013</v>
       </c>
@@ -14026,7 +14038,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2014</v>
       </c>
@@ -14040,7 +14052,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2015</v>
       </c>
@@ -14054,7 +14066,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2016</v>
       </c>
@@ -14068,7 +14080,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2017</v>
       </c>
@@ -14082,7 +14094,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2018</v>
       </c>
@@ -14096,7 +14108,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2019</v>
       </c>
@@ -14110,7 +14122,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2020</v>
       </c>
@@ -14124,7 +14136,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2021</v>
       </c>
@@ -14138,7 +14150,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2022</v>
       </c>
